--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1126,106 +1126,106 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -3674,54 +3674,54 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D79" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>6</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>7</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>6</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>9</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>7</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11913,239 +11913,239 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1126,106 +1126,106 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -3674,54 +3674,54 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>5</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>5</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>4</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>6</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>5</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>7</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>5</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>8</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>5</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>9</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,239 +11913,239 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
